--- a/reports/2025-09/dashboard.xlsx
+++ b/reports/2025-09/dashboard.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,4023 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>AU 10y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>36556</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>36585</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6519999999999999</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>36616</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>36646</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>36677</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>36707</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>36738</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>36799</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>36830</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>36860</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>36891</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>36922</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>36950</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>36981</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>37011</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>37042</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5389999999999999</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>37072</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>37103</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>37134</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>37164</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>37195</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>37225</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>37256</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>37287</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>37315</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>37346</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>37376</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>37407</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>37437</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>37468</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>37499</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>37529</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>37560</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>37590</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>37621</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>37652</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37680</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>37711</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>37741</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>37772</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>37802</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>37833</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>37864</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>37894</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4269999999999999</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>37925</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>37955</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>37986</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4269999999999999</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>38017</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>38046</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>38077</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>38107</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4349999999999999</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>38138</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>38168</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>38199</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>38230</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>38260</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>38291</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>38321</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>38352</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>38383</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>38411</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>38442</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>38472</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>38503</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>38533</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>38564</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>38595</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>38625</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>38656</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>38686</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>38717</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>38748</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>38776</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>38807</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>38837</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>38868</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>38898</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>38929</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>38960</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>38990</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>39021</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>39051</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>39082</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>39113</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>39141</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>39172</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>39202</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>39233</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>39263</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>39294</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>39325</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>39355</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>39386</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>39416</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>39447</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>39478</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>39507</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>39538</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>39568</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>39599</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>39629</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>39660</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>39691</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>39721</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>39752</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>39782</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>39813</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>39844</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>39872</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>39903</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>39933</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>39964</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>39994</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>40025</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>40056</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>40086</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>40117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>40147</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>40178</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>40209</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>40237</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>40268</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>40298</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>40329</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>40359</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>40390</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>40421</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>40451</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>40482</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>40512</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>40543</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>40574</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>40602</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>40633</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>40663</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>40694</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>40724</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>40755</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>40786</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>40816</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>40847</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>40877</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>40908</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>40939</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>40968</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>40999</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41090</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41182</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41364</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41455</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41517</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41608</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41790</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41882</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41973</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42035</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42063</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42155</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42308</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42400</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42490</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42582</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42735</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42855</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>43008</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43100</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43190</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43281</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43555</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43646</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43890</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.4309999999999999</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45535</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.4360000000000001</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.4389999999999999</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.4389999999999999</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>n/a</t>
         </is>
       </c>
     </row>
@@ -492,73 +4509,121 @@
       <c r="A2" s="2" t="n">
         <v>36556</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>36585</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>36616</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>36646</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>36677</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>36707</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>36738</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>36769</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>36799</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>36830</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>36860</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>36891</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2966,7 +7031,11 @@
       <c r="B2" t="n">
         <v>5.45</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -2975,7 +7044,11 @@
       <c r="B3" t="n">
         <v>5.73</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -2984,7 +7057,11 @@
       <c r="B4" t="n">
         <v>5.85</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2993,7 +7070,11 @@
       <c r="B5" t="n">
         <v>6.02</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -3002,7 +7083,11 @@
       <c r="B6" t="n">
         <v>6.27</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -3011,7 +7096,11 @@
       <c r="B7" t="n">
         <v>6.53</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -3020,7 +7109,11 @@
       <c r="B8" t="n">
         <v>6.54</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -3029,7 +7122,11 @@
       <c r="B9" t="n">
         <v>6.5</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -3038,7 +7135,11 @@
       <c r="B10" t="n">
         <v>6.52</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -3047,7 +7148,11 @@
       <c r="B11" t="n">
         <v>6.51</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -3056,7 +7161,11 @@
       <c r="B12" t="n">
         <v>6.51</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -3065,7 +7174,11 @@
       <c r="B13" t="n">
         <v>6.4</v>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -3074,7 +7187,11 @@
       <c r="B14" t="n">
         <v>5.98</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -3083,7 +7200,11 @@
       <c r="B15" t="n">
         <v>5.49</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -3092,7 +7213,11 @@
       <c r="B16" t="n">
         <v>5.31</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3101,7 +7226,11 @@
       <c r="B17" t="n">
         <v>4.8</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3110,7 +7239,11 @@
       <c r="B18" t="n">
         <v>4.21</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3119,7 +7252,11 @@
       <c r="B19" t="n">
         <v>3.97</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3128,7 +7265,11 @@
       <c r="B20" t="n">
         <v>3.77</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -3137,7 +7278,11 @@
       <c r="B21" t="n">
         <v>3.65</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -3146,7 +7291,11 @@
       <c r="B22" t="n">
         <v>3.07</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -3155,7 +7304,11 @@
       <c r="B23" t="n">
         <v>2.49</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -3164,7 +7317,11 @@
       <c r="B24" t="n">
         <v>2.09</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -3173,7 +7330,11 @@
       <c r="B25" t="n">
         <v>1.82</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -3182,7 +7343,11 @@
       <c r="B26" t="n">
         <v>1.73</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -3191,7 +7356,11 @@
       <c r="B27" t="n">
         <v>1.74</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -3200,7 +7369,11 @@
       <c r="B28" t="n">
         <v>1.73</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3209,7 +7382,11 @@
       <c r="B29" t="n">
         <v>1.75</v>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -3218,7 +7395,11 @@
       <c r="B30" t="n">
         <v>1.75</v>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -3227,7 +7408,11 @@
       <c r="B31" t="n">
         <v>1.75</v>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -3236,7 +7421,11 @@
       <c r="B32" t="n">
         <v>1.73</v>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -3245,7 +7434,11 @@
       <c r="B33" t="n">
         <v>1.74</v>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -3254,7 +7447,11 @@
       <c r="B34" t="n">
         <v>1.75</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -3263,7 +7460,11 @@
       <c r="B35" t="n">
         <v>1.75</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -3272,7 +7473,11 @@
       <c r="B36" t="n">
         <v>1.34</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3281,7 +7486,11 @@
       <c r="B37" t="n">
         <v>1.24</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3290,7 +7499,11 @@
       <c r="B38" t="n">
         <v>1.24</v>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3299,7 +7512,11 @@
       <c r="B39" t="n">
         <v>1.26</v>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3308,7 +7525,11 @@
       <c r="B40" t="n">
         <v>1.25</v>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3317,7 +7538,11 @@
       <c r="B41" t="n">
         <v>1.26</v>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3326,7 +7551,11 @@
       <c r="B42" t="n">
         <v>1.26</v>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3335,7 +7564,11 @@
       <c r="B43" t="n">
         <v>1.22</v>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3344,7 +7577,11 @@
       <c r="B44" t="n">
         <v>1.01</v>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3353,7 +7590,11 @@
       <c r="B45" t="n">
         <v>1.03</v>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3362,7 +7603,11 @@
       <c r="B46" t="n">
         <v>1.01</v>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3371,7 +7616,11 @@
       <c r="B47" t="n">
         <v>1.01</v>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3380,7 +7629,11 @@
       <c r="B48" t="n">
         <v>1</v>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3389,7 +7642,11 @@
       <c r="B49" t="n">
         <v>0.98</v>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3398,7 +7655,11 @@
       <c r="B50" t="n">
         <v>1</v>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3407,7 +7668,11 @@
       <c r="B51" t="n">
         <v>1.01</v>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3416,7 +7681,11 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3425,7 +7694,11 @@
       <c r="B53" t="n">
         <v>1</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3434,7 +7707,11 @@
       <c r="B54" t="n">
         <v>1</v>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3443,7 +7720,11 @@
       <c r="B55" t="n">
         <v>1.03</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3452,7 +7733,11 @@
       <c r="B56" t="n">
         <v>1.26</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3461,7 +7746,11 @@
       <c r="B57" t="n">
         <v>1.43</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3470,7 +7759,11 @@
       <c r="B58" t="n">
         <v>1.61</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3479,7 +7772,11 @@
       <c r="B59" t="n">
         <v>1.76</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3488,7 +7785,11 @@
       <c r="B60" t="n">
         <v>1.93</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3497,7 +7798,11 @@
       <c r="B61" t="n">
         <v>2.16</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3506,7 +7811,11 @@
       <c r="B62" t="n">
         <v>2.28</v>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3515,7 +7824,11 @@
       <c r="B63" t="n">
         <v>2.5</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3524,7 +7837,11 @@
       <c r="B64" t="n">
         <v>2.63</v>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3533,7 +7850,11 @@
       <c r="B65" t="n">
         <v>2.79</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3542,7 +7863,11 @@
       <c r="B66" t="n">
         <v>3</v>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3551,7 +7876,11 @@
       <c r="B67" t="n">
         <v>3.04</v>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3560,7 +7889,11 @@
       <c r="B68" t="n">
         <v>3.26</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3569,7 +7902,11 @@
       <c r="B69" t="n">
         <v>3.5</v>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3578,7 +7915,11 @@
       <c r="B70" t="n">
         <v>3.62</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3587,7 +7928,11 @@
       <c r="B71" t="n">
         <v>3.78</v>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3596,7 +7941,11 @@
       <c r="B72" t="n">
         <v>4</v>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3605,7 +7954,11 @@
       <c r="B73" t="n">
         <v>4.16</v>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3614,7 +7967,11 @@
       <c r="B74" t="n">
         <v>4.29</v>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -3623,7 +7980,11 @@
       <c r="B75" t="n">
         <v>4.49</v>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -3632,7 +7993,11 @@
       <c r="B76" t="n">
         <v>4.59</v>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -3641,7 +8006,11 @@
       <c r="B77" t="n">
         <v>4.79</v>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -3650,7 +8019,11 @@
       <c r="B78" t="n">
         <v>4.94</v>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -3659,7 +8032,11 @@
       <c r="B79" t="n">
         <v>4.99</v>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -3668,7 +8045,11 @@
       <c r="B80" t="n">
         <v>5.24</v>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -3677,7 +8058,11 @@
       <c r="B81" t="n">
         <v>5.25</v>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -3686,7 +8071,11 @@
       <c r="B82" t="n">
         <v>5.25</v>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -3695,7 +8084,11 @@
       <c r="B83" t="n">
         <v>5.25</v>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -3704,7 +8097,11 @@
       <c r="B84" t="n">
         <v>5.25</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -3713,7 +8110,11 @@
       <c r="B85" t="n">
         <v>5.24</v>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -3722,7 +8123,11 @@
       <c r="B86" t="n">
         <v>5.25</v>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -3731,7 +8136,11 @@
       <c r="B87" t="n">
         <v>5.26</v>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -3740,7 +8149,11 @@
       <c r="B88" t="n">
         <v>5.26</v>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -3749,7 +8162,11 @@
       <c r="B89" t="n">
         <v>5.25</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -3758,7 +8175,11 @@
       <c r="B90" t="n">
         <v>5.25</v>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -3767,7 +8188,11 @@
       <c r="B91" t="n">
         <v>5.25</v>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -3776,7 +8201,11 @@
       <c r="B92" t="n">
         <v>5.26</v>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -3785,7 +8214,11 @@
       <c r="B93" t="n">
         <v>5.02</v>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -3794,7 +8227,11 @@
       <c r="B94" t="n">
         <v>4.94</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -3803,7 +8240,11 @@
       <c r="B95" t="n">
         <v>4.76</v>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -3812,7 +8253,11 @@
       <c r="B96" t="n">
         <v>4.49</v>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -3821,7 +8266,11 @@
       <c r="B97" t="n">
         <v>4.24</v>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -3830,7 +8279,11 @@
       <c r="B98" t="n">
         <v>3.94</v>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -3839,7 +8292,11 @@
       <c r="B99" t="n">
         <v>2.98</v>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -3848,7 +8305,11 @@
       <c r="B100" t="n">
         <v>2.61</v>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -3857,7 +8318,11 @@
       <c r="B101" t="n">
         <v>2.28</v>
       </c>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -3866,7 +8331,11 @@
       <c r="B102" t="n">
         <v>1.98</v>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -3875,7 +8344,11 @@
       <c r="B103" t="n">
         <v>2</v>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -3884,7 +8357,11 @@
       <c r="B104" t="n">
         <v>2.01</v>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -3893,7 +8370,11 @@
       <c r="B105" t="n">
         <v>2</v>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -3902,7 +8383,11 @@
       <c r="B106" t="n">
         <v>1.81</v>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -3911,7 +8396,11 @@
       <c r="B107" t="n">
         <v>0.97</v>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -3920,7 +8409,11 @@
       <c r="B108" t="n">
         <v>0.39</v>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -3929,7 +8422,11 @@
       <c r="B109" t="n">
         <v>0.16</v>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -3938,7 +8435,11 @@
       <c r="B110" t="n">
         <v>0.15</v>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -3947,7 +8448,11 @@
       <c r="B111" t="n">
         <v>0.22</v>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -3956,7 +8461,11 @@
       <c r="B112" t="n">
         <v>0.18</v>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -3965,7 +8474,11 @@
       <c r="B113" t="n">
         <v>0.15</v>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -3974,7 +8487,11 @@
       <c r="B114" t="n">
         <v>0.18</v>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -3983,7 +8500,11 @@
       <c r="B115" t="n">
         <v>0.21</v>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -3992,7 +8513,11 @@
       <c r="B116" t="n">
         <v>0.16</v>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -4001,7 +8526,11 @@
       <c r="B117" t="n">
         <v>0.16</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -4010,7 +8539,11 @@
       <c r="B118" t="n">
         <v>0.15</v>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -4019,7 +8552,11 @@
       <c r="B119" t="n">
         <v>0.12</v>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -4028,7 +8565,11 @@
       <c r="B120" t="n">
         <v>0.12</v>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -4037,7 +8578,11 @@
       <c r="B121" t="n">
         <v>0.12</v>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -4046,7 +8591,11 @@
       <c r="B122" t="n">
         <v>0.11</v>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -4055,7 +8604,11 @@
       <c r="B123" t="n">
         <v>0.13</v>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -4064,7 +8617,11 @@
       <c r="B124" t="n">
         <v>0.16</v>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -4073,7 +8630,11 @@
       <c r="B125" t="n">
         <v>0.2</v>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -4082,7 +8643,11 @@
       <c r="B126" t="n">
         <v>0.2</v>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -4091,7 +8656,11 @@
       <c r="B127" t="n">
         <v>0.18</v>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -4100,7 +8669,11 @@
       <c r="B128" t="n">
         <v>0.18</v>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -4109,7 +8682,11 @@
       <c r="B129" t="n">
         <v>0.19</v>
       </c>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -4118,7 +8695,11 @@
       <c r="B130" t="n">
         <v>0.19</v>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -4127,7 +8708,11 @@
       <c r="B131" t="n">
         <v>0.19</v>
       </c>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -4136,7 +8721,11 @@
       <c r="B132" t="n">
         <v>0.19</v>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -4145,7 +8734,11 @@
       <c r="B133" t="n">
         <v>0.18</v>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -4154,7 +8747,11 @@
       <c r="B134" t="n">
         <v>0.17</v>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -4163,7 +8760,11 @@
       <c r="B135" t="n">
         <v>0.16</v>
       </c>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -4172,7 +8773,11 @@
       <c r="B136" t="n">
         <v>0.14</v>
       </c>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -4181,7 +8786,11 @@
       <c r="B137" t="n">
         <v>0.1</v>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -4190,7 +8799,11 @@
       <c r="B138" t="n">
         <v>0.09</v>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -4199,7 +8812,11 @@
       <c r="B139" t="n">
         <v>0.09</v>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -4208,7 +8825,11 @@
       <c r="B140" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -4217,7 +8838,11 @@
       <c r="B141" t="n">
         <v>0.1</v>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -4226,7 +8851,11 @@
       <c r="B142" t="n">
         <v>0.08</v>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -4235,7 +8864,11 @@
       <c r="B143" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -4244,7 +8877,11 @@
       <c r="B144" t="n">
         <v>0.08</v>
       </c>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -4253,7 +8890,11 @@
       <c r="B145" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -4262,7 +8903,11 @@
       <c r="B146" t="n">
         <v>0.08</v>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -4271,7 +8916,11 @@
       <c r="B147" t="n">
         <v>0.1</v>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -4280,7 +8929,11 @@
       <c r="B148" t="n">
         <v>0.13</v>
       </c>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -4289,7 +8942,11 @@
       <c r="B149" t="n">
         <v>0.14</v>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -4298,7 +8955,11 @@
       <c r="B150" t="n">
         <v>0.16</v>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -4307,7 +8968,11 @@
       <c r="B151" t="n">
         <v>0.16</v>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -4316,7 +8981,11 @@
       <c r="B152" t="n">
         <v>0.16</v>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -4325,7 +8994,11 @@
       <c r="B153" t="n">
         <v>0.13</v>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -4334,7 +9007,11 @@
       <c r="B154" t="n">
         <v>0.14</v>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -4343,7 +9020,11 @@
       <c r="B155" t="n">
         <v>0.16</v>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -4352,7 +9033,11 @@
       <c r="B156" t="n">
         <v>0.16</v>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -4361,7 +9046,11 @@
       <c r="B157" t="n">
         <v>0.16</v>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -4370,7 +9059,11 @@
       <c r="B158" t="n">
         <v>0.14</v>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -4379,7 +9072,11 @@
       <c r="B159" t="n">
         <v>0.15</v>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -4388,7 +9085,11 @@
       <c r="B160" t="n">
         <v>0.14</v>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -4397,7 +9098,11 @@
       <c r="B161" t="n">
         <v>0.15</v>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -4406,7 +9111,11 @@
       <c r="B162" t="n">
         <v>0.11</v>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -4415,7 +9124,11 @@
       <c r="B163" t="n">
         <v>0.09</v>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -4424,7 +9137,11 @@
       <c r="B164" t="n">
         <v>0.09</v>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -4433,7 +9150,11 @@
       <c r="B165" t="n">
         <v>0.08</v>
       </c>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -4442,7 +9163,11 @@
       <c r="B166" t="n">
         <v>0.08</v>
       </c>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -4451,7 +9176,11 @@
       <c r="B167" t="n">
         <v>0.09</v>
       </c>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -4460,7 +9189,11 @@
       <c r="B168" t="n">
         <v>0.08</v>
       </c>
-      <c r="C168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -4469,7 +9202,11 @@
       <c r="B169" t="n">
         <v>0.09</v>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -4478,7 +9215,11 @@
       <c r="B170" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -4487,7 +9228,11 @@
       <c r="B171" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -4496,7 +9241,11 @@
       <c r="B172" t="n">
         <v>0.08</v>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -4505,7 +9254,11 @@
       <c r="B173" t="n">
         <v>0.09</v>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -4514,7 +9267,11 @@
       <c r="B174" t="n">
         <v>0.09</v>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -4523,7 +9280,11 @@
       <c r="B175" t="n">
         <v>0.1</v>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -4532,7 +9293,11 @@
       <c r="B176" t="n">
         <v>0.09</v>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -4541,7 +9306,11 @@
       <c r="B177" t="n">
         <v>0.09</v>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -4550,7 +9319,11 @@
       <c r="B178" t="n">
         <v>0.09</v>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -4559,7 +9332,11 @@
       <c r="B179" t="n">
         <v>0.09</v>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -4568,7 +9345,11 @@
       <c r="B180" t="n">
         <v>0.09</v>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -4577,7 +9358,11 @@
       <c r="B181" t="n">
         <v>0.12</v>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -4586,7 +9371,11 @@
       <c r="B182" t="n">
         <v>0.11</v>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -4595,7 +9384,11 @@
       <c r="B183" t="n">
         <v>0.11</v>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -4604,7 +9397,11 @@
       <c r="B184" t="n">
         <v>0.11</v>
       </c>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -4613,7 +9410,11 @@
       <c r="B185" t="n">
         <v>0.12</v>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -4622,7 +9423,11 @@
       <c r="B186" t="n">
         <v>0.12</v>
       </c>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -4631,7 +9436,11 @@
       <c r="B187" t="n">
         <v>0.13</v>
       </c>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -4640,7 +9449,11 @@
       <c r="B188" t="n">
         <v>0.13</v>
       </c>
-      <c r="C188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -4649,7 +9462,11 @@
       <c r="B189" t="n">
         <v>0.14</v>
       </c>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -4658,7 +9475,11 @@
       <c r="B190" t="n">
         <v>0.14</v>
       </c>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -4667,7 +9488,11 @@
       <c r="B191" t="n">
         <v>0.12</v>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -4676,7 +9501,11 @@
       <c r="B192" t="n">
         <v>0.12</v>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -4685,7 +9514,11 @@
       <c r="B193" t="n">
         <v>0.24</v>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -4694,7 +9527,11 @@
       <c r="B194" t="n">
         <v>0.34</v>
       </c>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -4703,7 +9540,11 @@
       <c r="B195" t="n">
         <v>0.38</v>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -4712,7 +9553,11 @@
       <c r="B196" t="n">
         <v>0.36</v>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -4721,7 +9566,11 @@
       <c r="B197" t="n">
         <v>0.37</v>
       </c>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -4730,7 +9579,11 @@
       <c r="B198" t="n">
         <v>0.37</v>
       </c>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -4739,7 +9592,11 @@
       <c r="B199" t="n">
         <v>0.38</v>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -4748,7 +9605,11 @@
       <c r="B200" t="n">
         <v>0.39</v>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -4757,7 +9618,11 @@
       <c r="B201" t="n">
         <v>0.4</v>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -4766,7 +9631,11 @@
       <c r="B202" t="n">
         <v>0.4</v>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -4775,7 +9644,11 @@
       <c r="B203" t="n">
         <v>0.4</v>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -4784,7 +9657,11 @@
       <c r="B204" t="n">
         <v>0.41</v>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -4793,7 +9670,11 @@
       <c r="B205" t="n">
         <v>0.54</v>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -4802,7 +9683,11 @@
       <c r="B206" t="n">
         <v>0.65</v>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -4811,7 +9696,11 @@
       <c r="B207" t="n">
         <v>0.66</v>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -4820,7 +9709,11 @@
       <c r="B208" t="n">
         <v>0.79</v>
       </c>
-      <c r="C208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -4829,7 +9722,11 @@
       <c r="B209" t="n">
         <v>0.9</v>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -4838,7 +9735,11 @@
       <c r="B210" t="n">
         <v>0.91</v>
       </c>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -4847,7 +9748,11 @@
       <c r="B211" t="n">
         <v>1.04</v>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -4856,7 +9761,11 @@
       <c r="B212" t="n">
         <v>1.15</v>
       </c>
-      <c r="C212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -4865,7 +9774,11 @@
       <c r="B213" t="n">
         <v>1.16</v>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -4874,7 +9787,11 @@
       <c r="B214" t="n">
         <v>1.15</v>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -4883,7 +9800,11 @@
       <c r="B215" t="n">
         <v>1.15</v>
       </c>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -4892,7 +9813,11 @@
       <c r="B216" t="n">
         <v>1.16</v>
       </c>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -4901,7 +9826,11 @@
       <c r="B217" t="n">
         <v>1.3</v>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -4910,7 +9839,11 @@
       <c r="B218" t="n">
         <v>1.41</v>
       </c>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -4919,7 +9852,11 @@
       <c r="B219" t="n">
         <v>1.42</v>
       </c>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -4928,7 +9865,11 @@
       <c r="B220" t="n">
         <v>1.51</v>
       </c>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -4937,7 +9878,11 @@
       <c r="B221" t="n">
         <v>1.69</v>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -4946,7 +9891,11 @@
       <c r="B222" t="n">
         <v>1.7</v>
       </c>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -4955,7 +9904,11 @@
       <c r="B223" t="n">
         <v>1.82</v>
       </c>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -4964,7 +9917,11 @@
       <c r="B224" t="n">
         <v>1.91</v>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -4973,7 +9930,11 @@
       <c r="B225" t="n">
         <v>1.91</v>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -4982,7 +9943,11 @@
       <c r="B226" t="n">
         <v>1.95</v>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -4991,7 +9956,11 @@
       <c r="B227" t="n">
         <v>2.19</v>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -5000,7 +9969,11 @@
       <c r="B228" t="n">
         <v>2.2</v>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -5009,7 +9982,11 @@
       <c r="B229" t="n">
         <v>2.27</v>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -5018,7 +9995,11 @@
       <c r="B230" t="n">
         <v>2.4</v>
       </c>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -5027,7 +10008,11 @@
       <c r="B231" t="n">
         <v>2.4</v>
       </c>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -5036,7 +10021,11 @@
       <c r="B232" t="n">
         <v>2.41</v>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -5045,7 +10034,11 @@
       <c r="B233" t="n">
         <v>2.42</v>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -5054,7 +10047,11 @@
       <c r="B234" t="n">
         <v>2.39</v>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -5063,7 +10060,11 @@
       <c r="B235" t="n">
         <v>2.38</v>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -5072,7 +10073,11 @@
       <c r="B236" t="n">
         <v>2.4</v>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -5081,7 +10086,11 @@
       <c r="B237" t="n">
         <v>2.13</v>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -5090,7 +10099,11 @@
       <c r="B238" t="n">
         <v>2.04</v>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -5099,7 +10112,11 @@
       <c r="B239" t="n">
         <v>1.83</v>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -5108,7 +10125,11 @@
       <c r="B240" t="n">
         <v>1.55</v>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -5117,7 +10138,11 @@
       <c r="B241" t="n">
         <v>1.55</v>
       </c>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -5126,7 +10151,11 @@
       <c r="B242" t="n">
         <v>1.55</v>
       </c>
-      <c r="C242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -5135,7 +10164,11 @@
       <c r="B243" t="n">
         <v>1.58</v>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -5144,7 +10177,11 @@
       <c r="B244" t="n">
         <v>0.65</v>
       </c>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -5153,7 +10190,11 @@
       <c r="B245" t="n">
         <v>0.05</v>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -5162,7 +10203,11 @@
       <c r="B246" t="n">
         <v>0.05</v>
       </c>
-      <c r="C246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -5171,7 +10216,11 @@
       <c r="B247" t="n">
         <v>0.08</v>
       </c>
-      <c r="C247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -5180,7 +10229,11 @@
       <c r="B248" t="n">
         <v>0.09</v>
       </c>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -5189,7 +10242,11 @@
       <c r="B249" t="n">
         <v>0.1</v>
       </c>
-      <c r="C249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -5198,7 +10255,11 @@
       <c r="B250" t="n">
         <v>0.09</v>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -5207,7 +10268,11 @@
       <c r="B251" t="n">
         <v>0.09</v>
       </c>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -5216,7 +10281,11 @@
       <c r="B252" t="n">
         <v>0.09</v>
       </c>
-      <c r="C252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -5225,7 +10294,11 @@
       <c r="B253" t="n">
         <v>0.09</v>
       </c>
-      <c r="C253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -5234,7 +10307,11 @@
       <c r="B254" t="n">
         <v>0.09</v>
       </c>
-      <c r="C254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -5243,7 +10320,11 @@
       <c r="B255" t="n">
         <v>0.08</v>
       </c>
-      <c r="C255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -5252,7 +10333,11 @@
       <c r="B256" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -5261,7 +10346,11 @@
       <c r="B257" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -5270,7 +10359,11 @@
       <c r="B258" t="n">
         <v>0.06</v>
       </c>
-      <c r="C258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -5279,7 +10372,11 @@
       <c r="B259" t="n">
         <v>0.08</v>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -5288,7 +10385,11 @@
       <c r="B260" t="n">
         <v>0.1</v>
       </c>
-      <c r="C260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -5297,7 +10398,11 @@
       <c r="B261" t="n">
         <v>0.09</v>
       </c>
-      <c r="C261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -5306,7 +10411,11 @@
       <c r="B262" t="n">
         <v>0.08</v>
       </c>
-      <c r="C262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -5315,7 +10424,11 @@
       <c r="B263" t="n">
         <v>0.08</v>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -5324,7 +10437,11 @@
       <c r="B264" t="n">
         <v>0.08</v>
       </c>
-      <c r="C264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -5333,7 +10450,11 @@
       <c r="B265" t="n">
         <v>0.08</v>
       </c>
-      <c r="C265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -5342,7 +10463,11 @@
       <c r="B266" t="n">
         <v>0.08</v>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -5351,7 +10476,11 @@
       <c r="B267" t="n">
         <v>0.08</v>
       </c>
-      <c r="C267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -5360,7 +10489,11 @@
       <c r="B268" t="n">
         <v>0.2</v>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -5369,7 +10502,11 @@
       <c r="B269" t="n">
         <v>0.33</v>
       </c>
-      <c r="C269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -5378,7 +10515,11 @@
       <c r="B270" t="n">
         <v>0.77</v>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -5387,7 +10528,11 @@
       <c r="B271" t="n">
         <v>1.21</v>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -5396,7 +10541,11 @@
       <c r="B272" t="n">
         <v>1.68</v>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -5405,7 +10554,11 @@
       <c r="B273" t="n">
         <v>2.33</v>
       </c>
-      <c r="C273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -5414,7 +10567,11 @@
       <c r="B274" t="n">
         <v>2.56</v>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -5423,7 +10580,11 @@
       <c r="B275" t="n">
         <v>3.08</v>
       </c>
-      <c r="C275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -5432,7 +10593,11 @@
       <c r="B276" t="n">
         <v>3.78</v>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -5441,7 +10606,11 @@
       <c r="B277" t="n">
         <v>4.1</v>
       </c>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -5450,7 +10619,11 @@
       <c r="B278" t="n">
         <v>4.33</v>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -5459,7 +10632,11 @@
       <c r="B279" t="n">
         <v>4.57</v>
       </c>
-      <c r="C279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -5468,7 +10645,11 @@
       <c r="B280" t="n">
         <v>4.65</v>
       </c>
-      <c r="C280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -5477,7 +10658,11 @@
       <c r="B281" t="n">
         <v>4.83</v>
       </c>
-      <c r="C281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -5486,7 +10671,11 @@
       <c r="B282" t="n">
         <v>5.06</v>
       </c>
-      <c r="C282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -5495,7 +10684,11 @@
       <c r="B283" t="n">
         <v>5.08</v>
       </c>
-      <c r="C283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -5504,7 +10697,11 @@
       <c r="B284" t="n">
         <v>5.12</v>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -5513,7 +10710,11 @@
       <c r="B285" t="n">
         <v>5.33</v>
       </c>
-      <c r="C285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -5522,7 +10723,11 @@
       <c r="B286" t="n">
         <v>5.33</v>
       </c>
-      <c r="C286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -5531,7 +10736,11 @@
       <c r="B287" t="n">
         <v>5.33</v>
       </c>
-      <c r="C287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -5540,7 +10749,11 @@
       <c r="B288" t="n">
         <v>5.33</v>
       </c>
-      <c r="C288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -5549,7 +10762,11 @@
       <c r="B289" t="n">
         <v>5.33</v>
       </c>
-      <c r="C289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -5558,7 +10775,11 @@
       <c r="B290" t="n">
         <v>5.33</v>
       </c>
-      <c r="C290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -5567,7 +10788,11 @@
       <c r="B291" t="n">
         <v>5.33</v>
       </c>
-      <c r="C291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -5576,7 +10801,11 @@
       <c r="B292" t="n">
         <v>5.33</v>
       </c>
-      <c r="C292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -5585,7 +10814,11 @@
       <c r="B293" t="n">
         <v>5.33</v>
       </c>
-      <c r="C293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -5594,7 +10827,11 @@
       <c r="B294" t="n">
         <v>5.33</v>
       </c>
-      <c r="C294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -5603,7 +10840,11 @@
       <c r="B295" t="n">
         <v>5.33</v>
       </c>
-      <c r="C295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -5612,7 +10853,11 @@
       <c r="B296" t="n">
         <v>5.33</v>
       </c>
-      <c r="C296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -5621,7 +10866,11 @@
       <c r="B297" t="n">
         <v>5.33</v>
       </c>
-      <c r="C297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -5630,7 +10879,11 @@
       <c r="B298" t="n">
         <v>5.13</v>
       </c>
-      <c r="C298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -5639,7 +10892,11 @@
       <c r="B299" t="n">
         <v>4.83</v>
       </c>
-      <c r="C299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -5648,7 +10905,11 @@
       <c r="B300" t="n">
         <v>4.64</v>
       </c>
-      <c r="C300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -5657,7 +10918,11 @@
       <c r="B301" t="n">
         <v>4.48</v>
       </c>
-      <c r="C301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -5666,7 +10931,11 @@
       <c r="B302" t="n">
         <v>4.33</v>
       </c>
-      <c r="C302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -5675,7 +10944,11 @@
       <c r="B303" t="n">
         <v>4.33</v>
       </c>
-      <c r="C303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -5684,7 +10957,11 @@
       <c r="B304" t="n">
         <v>4.33</v>
       </c>
-      <c r="C304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -5693,7 +10970,11 @@
       <c r="B305" t="n">
         <v>4.33</v>
       </c>
-      <c r="C305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -5702,7 +10983,11 @@
       <c r="B306" t="n">
         <v>4.33</v>
       </c>
-      <c r="C306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -5711,7 +10996,11 @@
       <c r="B307" t="n">
         <v>4.33</v>
       </c>
-      <c r="C307" t="inlineStr"/>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -5720,7 +11009,11 @@
       <c r="B308" t="n">
         <v>4.33</v>
       </c>
-      <c r="C308" t="inlineStr"/>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -5729,7 +11022,11 @@
       <c r="B309" t="n">
         <v>4.33</v>
       </c>
-      <c r="C309" t="inlineStr"/>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -5738,7 +11035,11 @@
       <c r="B310" t="n">
         <v>4.22</v>
       </c>
-      <c r="C310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5867,7 +11168,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>US 10-year yields was little changed to n/a, a n/a move on the month, while Australian 10-year yields was little changed to n/a (n/a).</t>
+          <t>US 10-year yields fell to 0.41%, a -3.29% move on the month, while Australian 10-year yields was little changed to n/a (n/a).</t>
         </is>
       </c>
     </row>
